--- a/Config/JP/ReportTemplate.xlsx
+++ b/Config/JP/ReportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB3E8BD-2DBA-43E1-844F-A6ECFF18694D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152948B-8441-480F-AD34-86CAB92A7290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ワークフローファイル</t>
     <phoneticPr fontId="1"/>
@@ -51,7 +51,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Action</t>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -99,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -122,7 +125,7 @@
     <tableColumn id="2" xr3:uid="{DB7747F9-D92B-4CC1-AB9E-7AE69ADF34C2}" name="内部パス"/>
     <tableColumn id="3" xr3:uid="{3B498D3F-8398-47B2-ACE5-B119F71EB4E8}" name="対象"/>
     <tableColumn id="4" xr3:uid="{A0581726-DF95-4DB9-BDDE-2D527D8D8BB3}" name="事象"/>
-    <tableColumn id="6" xr3:uid="{AB6A81EA-2759-482D-B39D-798BE05109F5}" name="Action"/>
+    <tableColumn id="6" xr3:uid="{AB6A81EA-2759-482D-B39D-798BE05109F5}" name="対応"/>
     <tableColumn id="5" xr3:uid="{B19192A5-5CE8-4EE7-A9B5-D071ADEE6AB3}" name="メッセージ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -396,14 +399,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
+    <col min="6" max="6" width="51.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
